--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,23 +61,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위진영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>작업완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션 통합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 무기 장착(통합후 이슈발생)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 맵위에서 이동시키기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,19 +507,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,7 +837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -853,7 +848,7 @@
   <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -884,15 +879,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="31"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="19" t="s">
         <v>9</v>
       </c>
@@ -900,12 +895,14 @@
       <c r="J1" s="19"/>
       <c r="K1" s="22"/>
       <c r="L1" s="19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="Q1" s="19"/>
       <c r="R1" s="20"/>
       <c r="S1" s="19"/>
@@ -929,20 +926,16 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="19"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="19" t="s">
-        <v>14</v>
-      </c>
       <c r="M2" s="19"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
@@ -970,11 +963,11 @@
       <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="19"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19"/>
@@ -1009,47 +1002,47 @@
       <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="34" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1166,15 +1159,15 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="25"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="30"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -1185,20 +1178,23 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="30"/>
+        <v>14</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="26"/>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>캐릭터 맵위에서 이동시키기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 프러스텀컬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 바운딩박스, 바운딩스피어 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,9 +510,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -837,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -845,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,15 +884,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="29"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="19" t="s">
         <v>9</v>
       </c>
@@ -899,7 +904,7 @@
       </c>
       <c r="M1" s="19"/>
       <c r="N1" s="19"/>
-      <c r="O1" s="30"/>
+      <c r="O1" s="29"/>
       <c r="P1" s="19" t="s">
         <v>11</v>
       </c>
@@ -926,11 +931,11 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="19"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -963,11 +968,11 @@
       <c r="AK2" s="21"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="19"/>
       <c r="G3" s="23"/>
       <c r="H3" s="19"/>
@@ -1002,47 +1007,47 @@
       <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="31" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1166,7 +1171,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="30"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
@@ -1180,7 +1185,7 @@
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="24"/>
@@ -1194,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="27"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="26"/>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
@@ -1202,13 +1207,24 @@
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="26"/>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,15 +81,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 맵위에서 이동시키기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카메라 프러스텀컬링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터 바운딩박스, 바운딩스피어 작업</t>
+    <t>캐릭터 바운딩스피어 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 피킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질럿 피킹(FPS가 매우떨어짐)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -850,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1189,14 +1193,14 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="29"/>
@@ -1208,7 +1212,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="29"/>
@@ -1220,11 +1224,19 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>질럿 피킹(FPS가 매우떨어짐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">확인용 FPS </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,6 +1242,12 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F4:R4"/>

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t xml:space="preserve">확인용 FPS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 추출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -858,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1175,48 +1179,51 @@
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
       <c r="AK6" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="29"/>
@@ -1228,25 +1235,35 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="29"/>
+      <c r="H13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -854,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,7 +865,7 @@
   <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1184,8 +1184,8 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -1216,7 +1216,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="28"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -1255,9 +1255,7 @@
         <v>18</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E13" s="6" t="s">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -854,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -865,7 +865,7 @@
   <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1201,9 +1201,9 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
@@ -1216,7 +1216,7 @@
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,15 +93,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>질럿 피킹(FPS가 매우떨어짐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">확인용 FPS </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>리소스 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질럿 피킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키매니저 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +858,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1179,14 +1183,14 @@
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="28"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -1204,7 +1208,7 @@
       <c r="H7" s="22"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
@@ -1252,16 +1256,22 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>키매니저 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격애니메이션 커맨드화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1191,7 +1195,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="28"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
@@ -1209,7 +1213,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
@@ -1272,6 +1276,15 @@
         <v>21</v>
       </c>
       <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="22"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>공격애니메이션 커맨드화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 나오는 이펙트 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,7 +1200,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="28"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="AK6" s="18" t="s">
@@ -1282,9 +1286,15 @@
         <v>22</v>
       </c>
       <c r="L15" s="22"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
       <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리소스 추출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>질럿 피킹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,18 @@
   </si>
   <si>
     <t>공격시 나오는 이펙트 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 애니메이션시 포지션이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 추출 및 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터와 몬스터 충돌처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -874,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1191,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -1203,6 +1211,13 @@
       <c r="M6" s="22"/>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
       <c r="AK6" s="18" t="s">
         <v>6</v>
       </c>
@@ -1218,83 +1233,114 @@
       <c r="J7" s="28"/>
       <c r="K7" s="22"/>
       <c r="L7" s="28"/>
-      <c r="M7" s="27"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
+        <v>21</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
+        <v>22</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+        <v>23</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" s="27"/>
       <c r="H13" s="29"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -132,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -453,13 +453,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,9 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -532,18 +612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -573,6 +641,75 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,7 +1011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -882,13 +1019,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK18"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
@@ -896,192 +1033,192 @@
     <col min="5" max="5" width="35.75" style="6" customWidth="1"/>
     <col min="6" max="6" width="4" style="11" customWidth="1"/>
     <col min="7" max="7" width="4" style="7" customWidth="1"/>
-    <col min="8" max="8" width="4" style="15" customWidth="1"/>
+    <col min="8" max="8" width="4" style="14" customWidth="1"/>
     <col min="9" max="9" width="4" style="11" customWidth="1"/>
     <col min="10" max="14" width="4" style="7" customWidth="1"/>
-    <col min="15" max="15" width="4" style="15" customWidth="1"/>
+    <col min="15" max="15" width="4" style="14" customWidth="1"/>
     <col min="16" max="16" width="4" style="11" customWidth="1"/>
     <col min="17" max="17" width="4" style="7" customWidth="1"/>
-    <col min="18" max="18" width="4" style="13" customWidth="1"/>
+    <col min="18" max="18" width="4" style="12" customWidth="1"/>
     <col min="19" max="19" width="4" style="11" customWidth="1"/>
     <col min="20" max="21" width="4" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4" style="15" customWidth="1"/>
+    <col min="22" max="22" width="4" style="14" customWidth="1"/>
     <col min="23" max="23" width="4" style="11" customWidth="1"/>
     <col min="24" max="28" width="4" style="7" customWidth="1"/>
-    <col min="29" max="29" width="4" style="15" customWidth="1"/>
+    <col min="29" max="29" width="4" style="14" customWidth="1"/>
     <col min="30" max="30" width="4" style="11" customWidth="1"/>
     <col min="31" max="35" width="4" style="7" customWidth="1"/>
-    <col min="36" max="36" width="4" style="15" customWidth="1"/>
-    <col min="37" max="37" width="4" style="17" customWidth="1"/>
+    <col min="36" max="36" width="4" style="14" customWidth="1"/>
+    <col min="37" max="37" width="4" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:37">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="19" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="19" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="21"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="21"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="21"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="30" t="s">
+      <c r="Q1" s="18"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="20"/>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="20"/>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="20"/>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1097,55 +1234,55 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="33">
         <v>18</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="34">
         <v>19</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="35">
         <v>20</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="33">
         <v>21</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="36">
         <v>22</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="36">
         <v>23</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="36">
         <v>24</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="36">
         <v>25</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="34">
         <v>26</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="51">
         <v>27</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="33">
         <v>28</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="36">
         <v>29</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="37">
         <v>30</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="33">
         <v>1</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="36">
         <v>2</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="34">
         <v>3</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="35">
         <v>4</v>
       </c>
       <c r="W5" s="10">
@@ -1166,7 +1303,7 @@
       <c r="AB5" s="9">
         <v>10</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="13">
         <v>11</v>
       </c>
       <c r="AD5" s="10">
@@ -1187,160 +1324,342 @@
       <c r="AI5" s="9">
         <v>17</v>
       </c>
-      <c r="AJ5" s="14">
+      <c r="AJ5" s="13">
         <v>18</v>
       </c>
-      <c r="AK5" s="16">
+      <c r="AK5" s="15">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="AK6" s="18" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="46"/>
+      <c r="AK6" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37">
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F7" s="49"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="46"/>
+    </row>
+    <row r="8" spans="1:37">
       <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F8" s="50"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="47"/>
+    </row>
+    <row r="9" spans="1:37">
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F9" s="50"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="47"/>
+    </row>
+    <row r="10" spans="1:37">
       <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F10" s="50"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="47"/>
+    </row>
+    <row r="11" spans="1:37">
       <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F11" s="50"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="46"/>
+    </row>
+    <row r="12" spans="1:37">
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F12" s="54"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row r="13" spans="1:37">
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F13" s="50"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row r="14" spans="1:37">
       <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F14" s="50"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row r="15" spans="1:37">
       <c r="E15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="F15" s="50"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row r="16" spans="1:37">
       <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F16" s="50"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="47"/>
+    </row>
+    <row r="17" spans="5:22">
       <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F17" s="50"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="47"/>
+    </row>
+    <row r="18" spans="5:22">
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="47"/>
+    </row>
+    <row r="19" spans="5:22">
+      <c r="F19" s="50"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="47"/>
+    </row>
+    <row r="20" spans="5:22">
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/일정_이태훈.xlsx
+++ b/일정_이태훈.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>11월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,7 +121,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>캐릭터와 몬스터 충돌처리</t>
+    <t>AABB충돌처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 컨트롤러제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 쉐이더 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 디버깅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,6 +630,75 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,73 +723,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,7 +1032,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1019,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:V19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AD9:AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1053,13 +1074,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
       <c r="H1" s="18" t="s">
@@ -1100,11 +1121,11 @@
       <c r="AK1" s="20"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -1137,11 +1158,11 @@
       <c r="AK2" s="20"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="18"/>
       <c r="G3" s="22"/>
       <c r="H3" s="18"/>
@@ -1176,47 +1197,47 @@
       <c r="AK3" s="20"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="25" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="26" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="3" t="s">
@@ -1234,55 +1255,55 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="25">
         <v>18</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="26">
         <v>19</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="27">
         <v>20</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="25">
         <v>21</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="28">
         <v>22</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="28">
         <v>23</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="28">
         <v>24</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="28">
         <v>25</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="26">
         <v>26</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="43">
         <v>27</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="25">
         <v>28</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="28">
         <v>29</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="29">
         <v>30</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="25">
         <v>1</v>
       </c>
-      <c r="T5" s="36">
+      <c r="T5" s="28">
         <v>2</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="26">
         <v>3</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="27">
         <v>4</v>
       </c>
       <c r="W5" s="10">
@@ -1338,23 +1359,23 @@
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="46"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="47"/>
       <c r="AK6" s="17" t="s">
         <v>6</v>
       </c>
@@ -1363,303 +1384,330 @@
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="46"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
     </row>
     <row r="8" spans="1:37">
       <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="50"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="47"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
     </row>
     <row r="9" spans="1:37">
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="50"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="47"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="39"/>
     </row>
     <row r="10" spans="1:37">
       <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="50"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="47"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
     </row>
     <row r="11" spans="1:37">
       <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="50"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="50"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="42"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="46"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="47"/>
     </row>
     <row r="12" spans="1:37">
       <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
+        <v>26</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="50"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="42"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="47"/>
+      <c r="V12" s="39"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
     </row>
     <row r="13" spans="1:37">
       <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+        <v>27</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="50"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="42"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="47"/>
+      <c r="V13" s="39"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
     </row>
     <row r="14" spans="1:37">
       <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+        <v>28</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="50"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="47"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="58"/>
     </row>
     <row r="15" spans="1:37">
       <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="50"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="42"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="47"/>
+      <c r="V15" s="39"/>
     </row>
     <row r="16" spans="1:37">
       <c r="E16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="42"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="47"/>
+      <c r="V16" s="39"/>
     </row>
     <row r="17" spans="5:22">
       <c r="E17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="50"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="42"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="47"/>
+      <c r="V17" s="39"/>
     </row>
     <row r="18" spans="5:22">
       <c r="E18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="50"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="42"/>
       <c r="G18" s="2"/>
       <c r="H18" s="47"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="44"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="50"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="42"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="47"/>
+      <c r="V18" s="39"/>
     </row>
     <row r="19" spans="5:22">
-      <c r="F19" s="50"/>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="42"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="50"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="46"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="50"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="42"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="47"/>
+      <c r="V19" s="39"/>
     </row>
     <row r="20" spans="5:22">
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="40"/>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="32"/>
+    </row>
+    <row r="21" spans="5:22">
+      <c r="E21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
